--- a/数据整理/stocks/港股/01691-JS环球生活.xlsx
+++ b/数据整理/stocks/港股/01691-JS环球生活.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,139 +22,223 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>005197</t>
+  </si>
+  <si>
+    <t>040018</t>
+  </si>
+  <si>
+    <t>008234</t>
+  </si>
+  <si>
+    <t>008303</t>
+  </si>
+  <si>
+    <t>005198</t>
+  </si>
+  <si>
+    <t>002662</t>
+  </si>
+  <si>
+    <t>006675</t>
+  </si>
+  <si>
     <t>008861</t>
   </si>
   <si>
+    <t>002663</t>
+  </si>
+  <si>
+    <t>006676</t>
+  </si>
+  <si>
+    <t>040021</t>
+  </si>
+  <si>
+    <t>008304</t>
+  </si>
+  <si>
     <t>010093</t>
   </si>
   <si>
-    <t>002662</t>
-  </si>
-  <si>
-    <t>002663</t>
-  </si>
-  <si>
-    <t>005197</t>
-  </si>
-  <si>
-    <t>005198</t>
-  </si>
-  <si>
-    <t>006675</t>
-  </si>
-  <si>
-    <t>006676</t>
-  </si>
-  <si>
-    <t>040018</t>
-  </si>
-  <si>
-    <t>040021</t>
-  </si>
-  <si>
-    <t>008234</t>
-  </si>
-  <si>
-    <t>008303</t>
-  </si>
-  <si>
-    <t>008304</t>
+    <t>工银瑞信沪港深精选灵活配置混合A</t>
+  </si>
+  <si>
+    <t>华安香港精选股票(QDII)</t>
+  </si>
+  <si>
+    <t>光大保德信消费主题股票</t>
+  </si>
+  <si>
+    <t>宝盈龙头优选股票A</t>
+  </si>
+  <si>
+    <t>工银瑞信沪港深精选灵活配置混合C</t>
+  </si>
+  <si>
+    <t>前海开源沪港深大消费主题混合A</t>
+  </si>
+  <si>
+    <t>宝盈品牌消费股票A</t>
   </si>
   <si>
     <t>西部利得港股通新机遇灵活配置混合A</t>
   </si>
   <si>
+    <t>前海开源沪港深大消费主题混合C</t>
+  </si>
+  <si>
+    <t>宝盈品牌消费股票C</t>
+  </si>
+  <si>
+    <t>华安大中华升级股票(QDII)</t>
+  </si>
+  <si>
+    <t>宝盈龙头优选股票C</t>
+  </si>
+  <si>
     <t>西部利得港股通新机遇灵活配置混合C</t>
   </si>
   <si>
-    <t>前海开源沪港深大消费主题混合A</t>
-  </si>
-  <si>
-    <t>前海开源沪港深大消费主题混合C</t>
-  </si>
-  <si>
-    <t>工银瑞信沪港深精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>工银瑞信沪港深精选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>宝盈品牌消费股票A</t>
-  </si>
-  <si>
-    <t>宝盈品牌消费股票C</t>
-  </si>
-  <si>
-    <t>华安香港精选股票(QDII)</t>
-  </si>
-  <si>
-    <t>华安大中华升级股票(QDII)</t>
-  </si>
-  <si>
-    <t>光大保德信消费主题股票</t>
-  </si>
-  <si>
-    <t>宝盈龙头优选股票A</t>
-  </si>
-  <si>
-    <t>宝盈龙头优选股票C</t>
+    <t>9.01</t>
+  </si>
+  <si>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>94.82</t>
+  </si>
+  <si>
+    <t>83.01</t>
+  </si>
+  <si>
+    <t>94.77</t>
+  </si>
+  <si>
+    <t>90.85</t>
+  </si>
+  <si>
+    <t>84.57</t>
+  </si>
+  <si>
+    <t>94.84</t>
   </si>
   <si>
     <t>91.65</t>
   </si>
   <si>
-    <t>84.57</t>
-  </si>
-  <si>
-    <t>94.82</t>
-  </si>
-  <si>
-    <t>94.84</t>
-  </si>
-  <si>
-    <t>83.01</t>
-  </si>
-  <si>
     <t>90.91</t>
   </si>
   <si>
-    <t>94.77</t>
-  </si>
-  <si>
-    <t>90.85</t>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>6.61</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>9.33</t>
   </si>
   <si>
     <t>4.07</t>
   </si>
   <si>
-    <t>5.13</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>9.33</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
     <t>3.66</t>
   </si>
   <si>
-    <t>2.78</t>
-  </si>
-  <si>
-    <t>6.61</t>
+    <t>0.3217</t>
+  </si>
+  <si>
+    <t>0.2184</t>
+  </si>
+  <si>
+    <t>0.0784</t>
+  </si>
+  <si>
+    <t>0.0714</t>
+  </si>
+  <si>
+    <t>0.0553</t>
+  </si>
+  <si>
+    <t>0.0446</t>
+  </si>
+  <si>
+    <t>0.0373</t>
+  </si>
+  <si>
+    <t>0.0342</t>
+  </si>
+  <si>
+    <t>0.0277</t>
+  </si>
+  <si>
+    <t>0.0140</t>
+  </si>
+  <si>
+    <t>0.0135</t>
+  </si>
+  <si>
+    <t>0.0126</t>
+  </si>
+  <si>
+    <t>0.0065</t>
   </si>
 </sst>
 </file>
@@ -512,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,265 +618,349 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01691-JS环球生活.xlsx
+++ b/数据整理/stocks/港股/01691-JS环球生活.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8977</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7601</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01691-JS环球生活.xlsx
+++ b/数据整理/stocks/港股/01691-JS环球生活.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2816,4 +2817,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01691-JS环球生活.xlsx
+++ b/数据整理/stocks/港股/01691-JS环球生活.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2825,7 +2826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2836,17 +2837,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2856,14 +2877,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.09</v>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2872,14 +2915,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.82</v>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2888,13 +2953,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>13</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01691-JS环球生活.xlsx
+++ b/数据整理/stocks/港股/01691-JS环球生活.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3148,7 +3149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3159,17 +3160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.84</v>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8073</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3195,14 +3238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.09</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3770</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3211,14 +3276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.82</v>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3227,13 +3314,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01691-JS环球生活.xlsx
+++ b/数据整理/stocks/港股/01691-JS环球生活.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3471,7 +3472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3482,17 +3483,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3502,14 +3523,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.3</v>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9820</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3518,14 +3561,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.84</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3534,14 +3599,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.09</v>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3550,14 +3637,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.82</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3566,13 +3675,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01691-JS环球生活.xlsx
+++ b/数据整理/stocks/港股/01691-JS环球生活.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2.9</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>7.09</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>3.82</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>
@@ -583,6 +600,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -973,328 +1160,6 @@
       </c>
       <c r="H10" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏兴阳一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8073</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008850</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>69.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3770</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008715</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>62.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3703</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3490</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2719</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城价值边际灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.78</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1099</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1359,36 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009114</t>
+          <t>009010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏扬景泓回报灵活配置混合A</t>
+          <t>华夏兴阳一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>34.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>90.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3357</t>
+          <t>0.8073</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1397,36 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012744</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金A</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>17.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.98</t>
+          <t>69.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2746</t>
+          <t>0.3770</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1435,36 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>008715</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.33</t>
+          <t>62.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1676</t>
+          <t>0.3703</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1473,36 +1338,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009426</t>
+          <t>000979</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏扬景惠六个月持有期混合A</t>
+          <t>景顺长城沪港深精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.12</t>
+          <t>82.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.3490</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1511,36 +1376,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009115</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏扬景泓回报灵活配置混合C</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>75.58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.2719</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1549,36 +1414,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012758</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金C</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.98</t>
+          <t>80.78</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.1099</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1587,36 +1452,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009427</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏扬景惠六个月持有期混合C</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25.12</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1625,6 +1490,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2516,7 +2703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3446,7 +3633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01691-JS环球生活.xlsx
+++ b/数据整理/stocks/港股/01691-JS环球生活.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.9</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>7.09</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>3.82</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013859</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013860</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1160,328 +1575,6 @@
       </c>
       <c r="H10" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏兴阳一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8073</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008850</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>69.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3770</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008715</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>62.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3703</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3490</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2719</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城价值边际灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.78</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1099</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1546,36 +1639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009114</t>
+          <t>009010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏扬景泓回报灵活配置混合A</t>
+          <t>华夏兴阳一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>34.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>90.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3357</t>
+          <t>0.8073</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1584,36 +1677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012744</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金A</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>17.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.98</t>
+          <t>69.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2746</t>
+          <t>0.3770</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1622,36 +1715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>008715</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.33</t>
+          <t>62.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1676</t>
+          <t>0.3703</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1660,36 +1753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009426</t>
+          <t>000979</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏扬景惠六个月持有期混合A</t>
+          <t>景顺长城沪港深精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.12</t>
+          <t>82.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.3490</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1698,36 +1791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009115</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏扬景泓回报灵活配置混合C</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>75.58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.2719</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1736,36 +1829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012758</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金C</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.98</t>
+          <t>80.78</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.1099</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1774,36 +1867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009427</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏扬景惠六个月持有期混合C</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25.12</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1812,6 +1905,328 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2703,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3633,7 +4048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
